--- a/WorkingFolder/Tables/micro_reg.xlsx
+++ b/WorkingFolder/Tables/micro_reg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="76">
   <si>
     <t>incvar I</t>
   </si>
@@ -79,13 +79,13 @@
     <t>R2</t>
   </si>
   <si>
-    <t>0.42***</t>
-  </si>
-  <si>
-    <t>(0.13)</t>
-  </si>
-  <si>
-    <t>-0.20***</t>
+    <t>0.37***</t>
+  </si>
+  <si>
+    <t>(0.14)</t>
+  </si>
+  <si>
+    <t>-0.19***</t>
   </si>
   <si>
     <t>(0.03)</t>
@@ -97,19 +97,16 @@
     <t>(0.02)</t>
   </si>
   <si>
-    <t>41422</t>
+    <t>40110</t>
   </si>
   <si>
     <t>0.01</t>
   </si>
   <si>
-    <t>-0.08</t>
-  </si>
-  <si>
-    <t>(0.14)</t>
-  </si>
-  <si>
-    <t>0.21***</t>
+    <t>-0.13</t>
+  </si>
+  <si>
+    <t>0.22***</t>
   </si>
   <si>
     <t>(0.04)</t>
@@ -127,7 +124,7 @@
     <t>0.02</t>
   </si>
   <si>
-    <t>-0.05</t>
+    <t>-0.11</t>
   </si>
   <si>
     <t>(0.15)</t>
@@ -145,13 +142,13 @@
     <t>0.08***</t>
   </si>
   <si>
-    <t>34833</t>
+    <t>33743</t>
   </si>
   <si>
     <t>0.03</t>
   </si>
   <si>
-    <t>0.64**</t>
+    <t>0.60**</t>
   </si>
   <si>
     <t>(0.29)</t>
@@ -166,10 +163,10 @@
     <t>-0.35***</t>
   </si>
   <si>
-    <t>-0.11***</t>
-  </si>
-  <si>
-    <t>-0.25</t>
+    <t>-0.12***</t>
+  </si>
+  <si>
+    <t>-0.26</t>
   </si>
   <si>
     <t>(0.19)</t>
@@ -178,70 +175,70 @@
     <t>0.04</t>
   </si>
   <si>
-    <t>0.78***</t>
-  </si>
-  <si>
-    <t>(0.28)</t>
+    <t>0.72**</t>
   </si>
   <si>
     <t>0.09**</t>
   </si>
   <si>
-    <t>-0.33***</t>
+    <t>-0.32***</t>
   </si>
   <si>
     <t>-0.01</t>
   </si>
   <si>
-    <t>1.25***</t>
-  </si>
-  <si>
-    <t>0.16***</t>
+    <t>1.22***</t>
+  </si>
+  <si>
+    <t>0.17***</t>
   </si>
   <si>
     <t>-0.17***</t>
   </si>
   <si>
-    <t>-0.31*</t>
-  </si>
-  <si>
-    <t>33480</t>
+    <t>-0.31</t>
+  </si>
+  <si>
+    <t>32430</t>
   </si>
   <si>
     <t>0.10</t>
   </si>
   <si>
-    <t>0.85***</t>
+    <t>0.79***</t>
   </si>
   <si>
     <t>0.11**</t>
   </si>
   <si>
+    <t>(0.05)</t>
+  </si>
+  <si>
     <t>0.11***</t>
   </si>
   <si>
     <t>-0.30***</t>
   </si>
   <si>
+    <t>0.07***</t>
+  </si>
+  <si>
     <t>-0.02</t>
   </si>
   <si>
-    <t>-0.00***</t>
+    <t>0.00***</t>
   </si>
   <si>
     <t>0.01***</t>
   </si>
   <si>
-    <t>0.17***</t>
-  </si>
-  <si>
     <t>-0.13***</t>
   </si>
   <si>
-    <t>-0.17</t>
-  </si>
-  <si>
-    <t>29687</t>
+    <t>-0.16</t>
+  </si>
+  <si>
+    <t>28664</t>
   </si>
   <si>
     <t>0.06</t>
@@ -639,16 +636,16 @@
         <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -657,19 +654,19 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -680,19 +677,19 @@
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -701,19 +698,19 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -724,19 +721,19 @@
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -765,37 +762,37 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1"/>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -803,16 +800,16 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -835,16 +832,16 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G12" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -867,7 +864,7 @@
         <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G14" t="s">
         <v>69</v>
@@ -879,7 +876,7 @@
         <v>26</v>
       </c>
       <c r="G15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -887,7 +884,7 @@
         <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G16" t="s">
         <v>70</v>
@@ -899,7 +896,7 @@
         <v>24</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -913,7 +910,7 @@
     <row r="19" spans="1:7">
       <c r="A19" s="1"/>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -927,7 +924,7 @@
     <row r="21" spans="1:7">
       <c r="A21" s="1"/>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -935,10 +932,10 @@
         <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G22" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -955,13 +952,13 @@
         <v>17</v>
       </c>
       <c r="E24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -981,25 +978,25 @@
         <v>18</v>
       </c>
       <c r="E26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1"/>
       <c r="E27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1013,16 +1010,16 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F28" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1033,19 +1030,19 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
